--- a/biology/Zoologie/Curculio_glandium/Curculio_glandium.xlsx
+++ b/biology/Zoologie/Curculio_glandium/Curculio_glandium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculio glandium, le charançon du chêne ou balanin du chêne, est une espèce d’insectes coléoptères de la famille des Curculionidae.
 Le Curculio glandium s’immobilise lorsqu’il est positionné sur le dos entrant ainsi en catalepsie jusqu’à son retournement. Il s’agit là d’une technique ayant pour but de tromper ses prédateurs.
@@ -513,7 +525,9 @@
           <t>Descriptions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculio glandium est une espèce du genre Curculio qui comprend les coléoptères des semences. Tous les membres du genre ont comme caractéristiques un long rostre et ovopositeurs, une adaptation spécifiquement développée par leurs dépendance aux graines pour se nourrir et se reproduire.
 La différenciation entre les individus mâle et femelle peut être déterminée par le rostre, plus long chez la femelle. et se déplacent à l'aide de crêtes sur la face inférieure du corps. Les adultes peuvent atteindre une longueur de 4 à 8 mm.
@@ -545,7 +559,9 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs sont déposés dans les glands par les adultes après creusement de canaux dans le gland.
 Les œufs sont relâchés à l'aide de l'ovipositeur de la femelle, un organe long et étroit. Les œufs n'atteignent pas l'embryon du gland, les canaux cicatrisent, cela referme les trous et protège les œufs des parasites.
@@ -578,7 +594,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Curculio glandium peut représenter un risque important pour les populations de chênes. Il est très efficace pour infecter les glands, ce qui peut rendre un grand nombre d'entre eux incapables de germer, avec 70 à 90 % des graines incapables de germer.
 </t>
@@ -609,7 +627,9 @@
           <t>Espèces proches</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Curculio nucum, le balanin des noisettes
 Curculio elephas, le balanin des châtaignes.
